--- a/fpga/Y8960_Cartridge_TangPrimer25K/doc/Y8960_Cartridge_TangPrimer25K_pin.xlsx
+++ b/fpga/Y8960_Cartridge_TangPrimer25K/doc/Y8960_Cartridge_TangPrimer25K_pin.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HRA_product\Y8960_Cartridge\fpga\Y8960_Cartridge_TangPrimer25K\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476396E3-9420-47E0-BF4B-8912CE32481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="2"/>
+    <workbookView xWindow="-270" yWindow="0" windowWidth="21300" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要となるピン" sheetId="1" r:id="rId1"/>
     <sheet name="TangPrimer25K" sheetId="2" r:id="rId2"/>
-    <sheet name="TangPrimer20K" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="780" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="281">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -550,10 +550,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>out</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>F7</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,10 +630,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>slot_clock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>D1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -958,10 +950,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>L11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>D11</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1097,31 +1085,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>sdram_d0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sdram_d1</t>
-  </si>
-  <si>
-    <t>sdram_d2</t>
-  </si>
-  <si>
-    <t>sdram_d3</t>
-  </si>
-  <si>
-    <t>sdram_d4</t>
-  </si>
-  <si>
-    <t>sdram_d5</t>
-  </si>
-  <si>
-    <t>sdram_d6</t>
-  </si>
-  <si>
-    <t>sdram_d7</t>
-  </si>
-  <si>
     <t>sdram_dqm0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1130,755 +1093,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>回路図上の名前</t>
-    <rPh sb="0" eb="3">
-      <t>カイロズ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signal name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PIN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>COMMENT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T13_JTAG_RXO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T13_TXO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1V5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1V5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1V5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SW1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_dipsw[0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_WR_N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_wr_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_WAIT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_wait</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>J14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_SLTSL_N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_sltsl_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_RFSH_N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_rfsh_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_RESET_N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T10_RSTn</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_RD_N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_rd_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_OE_N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_MERQ_N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_mreq_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_M1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_m1_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_IORQ_N</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_ioreq_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>J12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_INT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_int</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>J16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_DIR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_data_dir</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_D7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_data[7]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_D6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_data[6]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_D5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_data[5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_D4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_data[4]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_D3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_data[3]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_D2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_data[2]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_D1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_data[1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_D0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_data[0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_CLOCK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[9]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>G16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[8]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[7]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[6]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[4]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[3]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[2]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[15]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[14]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>T9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[13]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[12]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>J15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[11]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[10]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>H14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[1]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SLOT_A0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_address[0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>K14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R9_DISP_CLK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R7_DISP_G3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>R7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P7_DISP_G2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>P7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N9_DISP_R2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N8_DISP_R1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N7_DISP_R3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N6_DISP_R4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>N6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M11_JTAG_TXO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>M11_RXO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L9_DISP_R0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L9</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E15_DISP_DEN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E10_DISP_BL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>E10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D14_DISP_VSYNC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D10_DISP_G4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C6_JTAG_TDO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C12_DISP_B1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B8_JTAG_TMS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B14_DISP_B4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B13_DISP_B2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B13</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B12_DISP_B0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B12</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B11_DISP_G1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A7_JTAG_TCK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6_JTAG_TDI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A15_DISP_HSYNC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A14_DISP_B3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A14</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A11_DISP_G0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_dipsw[4]</t>
-  </si>
-  <si>
-    <t>p_dipsw[3]</t>
-  </si>
-  <si>
-    <t>p_dipsw[2]</t>
-  </si>
-  <si>
-    <t>p_dipsw[1]</t>
-  </si>
-  <si>
-    <t>p_slot_reset_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>p_slot_oe_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>clk</t>
+    <t>K11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MG121N</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1896,7 +1122,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1921,8 +1147,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2065,52 +1309,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2171,22 +1376,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2195,6 +1391,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2468,7 +1669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:E80"/>
   <sheetViews>
     <sheetView topLeftCell="A45" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -3283,7 +2484,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>51</v>
@@ -3295,7 +2496,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>51</v>
@@ -3307,7 +2508,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>51</v>
@@ -3442,11 +2643,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AB32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:AB33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3466,1234 +2667,1113 @@
     <col min="27" max="27" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="2:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B3" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="Q3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R3" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="S3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="T3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W3" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X3" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Y3" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z3" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="AA2" s="10" t="s">
+      <c r="AA3" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="AB2" s="11" t="s">
+      <c r="AB3" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B3" s="12">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B4" s="12">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C4" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I4" s="12">
         <v>1</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J4" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="P3" s="12">
+      <c r="P4" s="12">
         <v>2</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="U3" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="W3" s="12">
-        <v>1</v>
-      </c>
-      <c r="X3" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB3" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B4" s="15">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="15">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N4" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="12">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="13" t="s">
-        <v>111</v>
       </c>
       <c r="R4" s="13"/>
       <c r="S4" s="13" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="T4" s="13" t="s">
         <v>104</v>
       </c>
       <c r="U4" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="W4" s="15">
-        <v>3</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>5</v>
-      </c>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="AB4" s="16" t="s">
-        <v>182</v>
+        <v>99</v>
+      </c>
+      <c r="W4" s="12">
+        <v>1</v>
+      </c>
+      <c r="X4" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B5" s="15">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
+        <v>106</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>270</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="I5" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K5" s="3">
         <v>0</v>
       </c>
       <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
-        <v>118</v>
+      <c r="M5" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="N5" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="P5" s="15">
-        <v>6</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="R5" s="3">
-        <v>2</v>
-      </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="U5" s="16" t="s">
-        <v>122</v>
+      <c r="P5" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>104</v>
       </c>
       <c r="W5" s="15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="Y5" s="3">
         <v>5</v>
       </c>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="AB5" s="16" t="s">
-        <v>182</v>
-      </c>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B6" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>33</v>
+        <v>115</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>32</v>
       </c>
       <c r="G6" s="16" t="s">
         <v>126</v>
       </c>
       <c r="I6" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="K6" s="3">
         <v>0</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
+      <c r="L6" s="3"/>
+      <c r="M6" s="20" t="s">
+        <v>118</v>
       </c>
       <c r="N6" s="16" t="s">
         <v>126</v>
       </c>
       <c r="P6" s="15">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="R6" s="3">
         <v>2</v>
       </c>
       <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>130</v>
+      <c r="T6" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="U6" s="16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="W6" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="Y6" s="3">
         <v>5</v>
       </c>
-      <c r="Z6" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>282</v>
-      </c>
-      <c r="AB6" s="16" t="s">
-        <v>182</v>
-      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="16"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B7" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>34</v>
+        <v>125</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>33</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>126</v>
       </c>
       <c r="I7" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="K7" s="3">
         <v>0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>17</v>
+        <v>128</v>
+      </c>
+      <c r="M7" s="20" t="s">
+        <v>16</v>
       </c>
       <c r="N7" s="16" t="s">
         <v>126</v>
       </c>
       <c r="P7" s="15">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="R7" s="3">
         <v>2</v>
       </c>
       <c r="S7" s="3"/>
-      <c r="T7" s="3" t="s">
-        <v>139</v>
+      <c r="T7" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="U7" s="16" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="W7" s="15">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="Y7" s="3">
         <v>5</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="AB7" s="16" t="s">
-        <v>182</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="AA7" s="3"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>277</v>
+      <c r="E8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>34</v>
       </c>
       <c r="G8" s="16" t="s">
         <v>126</v>
       </c>
       <c r="I8" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>18</v>
+        <v>137</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>17</v>
       </c>
       <c r="N8" s="16" t="s">
         <v>126</v>
       </c>
       <c r="P8" s="15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R8" s="3">
         <v>2</v>
       </c>
       <c r="S8" s="3"/>
-      <c r="T8" s="3" t="s">
-        <v>146</v>
+      <c r="T8" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="U8" s="16" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="W8" s="15">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="Y8" s="3">
         <v>5</v>
       </c>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB8" s="16" t="s">
-        <v>182</v>
-      </c>
+      <c r="Z8" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="16"/>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>278</v>
+      <c r="F9" s="20" t="s">
+        <v>274</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>126</v>
       </c>
       <c r="I9" s="15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="K9" s="3">
         <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="N9" s="16" t="s">
         <v>126</v>
       </c>
       <c r="P9" s="15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="R9" s="3">
         <v>2</v>
       </c>
       <c r="S9" s="3"/>
-      <c r="T9" s="3" t="s">
-        <v>151</v>
+      <c r="T9" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="W9" s="15">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="Y9" s="3">
         <v>5</v>
       </c>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="AB9" s="16" t="s">
-        <v>182</v>
-      </c>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>25</v>
+      <c r="F10" s="20" t="s">
+        <v>275</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I10" s="12">
-        <v>15</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>155</v>
+      <c r="I10" s="15">
+        <v>13</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10" s="16" t="s">
+        <v>126</v>
       </c>
       <c r="P10" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R10" s="3">
         <v>2</v>
       </c>
       <c r="S10" s="3"/>
-      <c r="T10" s="3" t="s">
-        <v>157</v>
+      <c r="T10" s="20" t="s">
+        <v>150</v>
       </c>
       <c r="U10" s="16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="W10" s="15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X10" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="Y10" s="3">
         <v>5</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>182</v>
-      </c>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="16"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
+      <c r="F11" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I11" s="15">
-        <v>17</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="3">
-        <v>4</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="16"/>
+      <c r="I11" s="12">
+        <v>15</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>154</v>
+      </c>
       <c r="P11" s="15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R11" s="3">
         <v>2</v>
       </c>
-      <c r="S11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>164</v>
+      <c r="S11" s="3"/>
+      <c r="T11" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="U11" s="16" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="W11" s="15">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X11" s="3" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="Y11" s="3">
         <v>5</v>
       </c>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB11" s="16" t="s">
-        <v>182</v>
-      </c>
+      <c r="Z11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>23</v>
+      <c r="F12" s="20" t="s">
+        <v>24</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>126</v>
       </c>
       <c r="I12" s="15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K12" s="3">
         <v>4</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="16"/>
       <c r="P12" s="15">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="R12" s="3">
         <v>2</v>
       </c>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3" t="s">
-        <v>170</v>
+      <c r="S12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="W12" s="12">
-        <v>19</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y12" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB12" s="14" t="s">
-        <v>99</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="W12" s="15">
+        <v>17</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>5</v>
+      </c>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="16"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>22</v>
+      <c r="F13" s="20" t="s">
+        <v>23</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>126</v>
       </c>
       <c r="I13" s="15">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="K13" s="3">
         <v>4</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="16"/>
       <c r="P13" s="15">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R13" s="3">
         <v>2</v>
       </c>
-      <c r="S13" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="U13" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="16"/>
       <c r="W13" s="12">
+        <v>19</v>
+      </c>
+      <c r="X13" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y13" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB13" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B14" s="15">
+        <v>22</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I14" s="15">
         <v>21</v>
       </c>
-      <c r="X13" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="Y13" s="13">
-        <v>10</v>
-      </c>
-      <c r="Z13" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AA13" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB13" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B14" s="12">
-        <v>24</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="15">
-        <v>23</v>
-      </c>
       <c r="J14" s="3" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="K14" s="3">
         <v>4</v>
       </c>
-      <c r="L14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>171</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="16"/>
       <c r="P14" s="15">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="R14" s="3">
         <v>2</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="T14" s="3"/>
+      <c r="U14" s="16"/>
       <c r="W14" s="12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="X14" s="13" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="Y14" s="13">
         <v>10</v>
       </c>
       <c r="Z14" s="13" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>99</v>
+        <v>175</v>
       </c>
       <c r="AB14" s="14" t="s">
-        <v>185</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B15" s="12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="E15" s="13" t="s">
         <v>112</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>101</v>
-      </c>
       <c r="I15" s="15">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K15" s="3">
         <v>4</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>188</v>
-      </c>
+      <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="16"/>
       <c r="P15" s="15">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="R15" s="3">
         <v>2</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="U15" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="T15" s="3"/>
+      <c r="U15" s="16"/>
       <c r="W15" s="12">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="X15" s="13" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="Y15" s="13">
         <v>10</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>99</v>
       </c>
       <c r="AB15" s="14" t="s">
-        <v>104</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B16" s="12">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>100</v>
+        <v>184</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="13"/>
+        <v>154</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>112</v>
+      </c>
       <c r="F16" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="12">
-        <v>27</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="N16" s="14" t="s">
-        <v>98</v>
-      </c>
+      <c r="I16" s="15">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K16" s="3">
+        <v>4</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="16"/>
       <c r="P16" s="15">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="R16" s="3">
         <v>2</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="U16" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="16"/>
       <c r="W16" s="12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="X16" s="13" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Y16" s="13">
         <v>10</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="AA16" s="13" t="s">
         <v>99</v>
       </c>
       <c r="AB16" s="14" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B17" s="15">
-        <v>30</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="3">
-        <v>7</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>182</v>
+      <c r="B17" s="12">
+        <v>28</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="I17" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J17" s="13" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="K17" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>112</v>
-      </c>
+      <c r="L17" s="13"/>
       <c r="M17" s="13" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P17" s="15">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="R17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U17" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="16"/>
       <c r="W17" s="12">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="X17" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="Y17" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="Z17" s="13"/>
+        <v>192</v>
+      </c>
+      <c r="Y17" s="13">
+        <v>10</v>
+      </c>
+      <c r="Z17" s="13" t="s">
+        <v>193</v>
+      </c>
       <c r="AA17" s="13" t="s">
         <v>99</v>
       </c>
       <c r="AB17" s="14" t="s">
-        <v>101</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B18" s="15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D18" s="3">
         <v>7</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
+      <c r="F18" s="20" t="s">
+        <v>6</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I18" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>112</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P18" s="15">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="3" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="R18" s="3">
         <v>3</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U18" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="16"/>
       <c r="W18" s="12">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="X18" s="13" t="s">
-        <v>203</v>
+        <v>153</v>
       </c>
       <c r="Y18" s="13" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="14"/>
+      <c r="AA18" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB18" s="14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="19" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B19" s="15">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D19" s="3">
         <v>7</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
-        <v>8</v>
+      <c r="F19" s="20" t="s">
+        <v>7</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="I19" s="15">
-        <v>33</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="3">
-        <v>7</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>126</v>
+        <v>180</v>
+      </c>
+      <c r="I19" s="12">
+        <v>31</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="P19" s="15">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="R19" s="3">
         <v>3</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="U19" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="16"/>
       <c r="W19" s="12">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="X19" s="13" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="Y19" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
@@ -4701,193 +3781,189 @@
     </row>
     <row r="20" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B20" s="15">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D20" s="3">
         <v>7</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>9</v>
+      <c r="F20" s="20" t="s">
+        <v>8</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I20" s="15">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="K20" s="3">
         <v>7</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>214</v>
+        <v>205</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>206</v>
       </c>
       <c r="N20" s="16" t="s">
         <v>126</v>
       </c>
       <c r="P20" s="15">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="Q20" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="R20" s="3">
         <v>3</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="U20" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="16"/>
       <c r="W20" s="12">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="X20" s="13" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="Y20" s="13" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="Z20" s="13"/>
-      <c r="AA20" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB20" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="AA20" s="13"/>
+      <c r="AB20" s="14"/>
     </row>
     <row r="21" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B21" s="15">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D21" s="3">
         <v>7</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
-        <v>10</v>
+      <c r="F21" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I21" s="15">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="K21" s="3">
         <v>7</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>80</v>
+        <v>211</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="N21" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="P21" s="12">
-        <v>38</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="R21" s="13" t="s">
+      <c r="P21" s="15">
+        <v>36</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="R21" s="3">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="T21" s="3"/>
+      <c r="U21" s="16"/>
+      <c r="W21" s="12">
+        <v>35</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y21" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="S21" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="T21" s="13"/>
-      <c r="U21" s="14"/>
-      <c r="W21" s="12">
-        <v>37</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="Y21" s="13" t="s">
-        <v>223</v>
-      </c>
       <c r="Z21" s="13"/>
-      <c r="AA21" s="13"/>
-      <c r="AB21" s="14"/>
+      <c r="AA21" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB21" s="14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B22" s="15">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D22" s="3">
         <v>7</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>11</v>
+      <c r="F22" s="20" t="s">
+        <v>10</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I22" s="15">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="K22" s="3">
         <v>7</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+        <v>217</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="N22" s="16" t="s">
         <v>126</v>
       </c>
       <c r="P22" s="12">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q22" s="13" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="R22" s="13" t="s">
-        <v>155</v>
+        <v>99</v>
       </c>
       <c r="S22" s="13" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="T22" s="13"/>
       <c r="U22" s="14"/>
       <c r="W22" s="12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="X22" s="13" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="Y22" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Z22" s="13"/>
       <c r="AA22" s="13"/>
@@ -4895,183 +3971,185 @@
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B23" s="15">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D23" s="3">
         <v>7</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
+      <c r="F23" s="20" t="s">
+        <v>11</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I23" s="15">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="K23" s="3">
         <v>7</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
+      <c r="L23" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>4</v>
       </c>
       <c r="N23" s="16" t="s">
         <v>126</v>
       </c>
       <c r="P23" s="12">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="13" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="R23" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S23" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="T23" s="13"/>
       <c r="U23" s="14"/>
       <c r="W23" s="12">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="X23" s="13" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="Y23" s="13" t="s">
-        <v>98</v>
+        <v>221</v>
       </c>
       <c r="Z23" s="13"/>
-      <c r="AA23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB23" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="14"/>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B24" s="15">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D24" s="3">
         <v>7</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
-        <v>13</v>
+      <c r="F24" s="20" t="s">
+        <v>12</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="I24" s="15">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="K24" s="3">
         <v>7</v>
       </c>
       <c r="L24" s="3"/>
-      <c r="M24" s="3" t="s">
-        <v>35</v>
+      <c r="M24" s="20" t="s">
+        <v>5</v>
       </c>
       <c r="N24" s="16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P24" s="12">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="Q24" s="13" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="R24" s="13" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="S24" s="13" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="14"/>
       <c r="W24" s="12">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="X24" s="13" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Y24" s="13" t="s">
-        <v>239</v>
+        <v>98</v>
       </c>
       <c r="Z24" s="13"/>
-      <c r="AA24" s="13"/>
-      <c r="AB24" s="14"/>
+      <c r="AA24" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB24" s="14" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B25" s="15">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D25" s="3">
         <v>7</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>275</v>
+      <c r="F25" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="I25" s="12">
-        <v>45</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="K25" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="I25" s="15">
+        <v>43</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="3">
+        <v>7</v>
+      </c>
+      <c r="L25" s="3"/>
+      <c r="M25" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="12">
+        <v>44</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="R25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="P25" s="12">
-        <v>46</v>
-      </c>
-      <c r="Q25" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="R25" s="13" t="s">
-        <v>98</v>
-      </c>
       <c r="S25" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="T25" s="13"/>
       <c r="U25" s="14"/>
       <c r="W25" s="12">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="X25" s="13" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Y25" s="13" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Z25" s="13"/>
       <c r="AA25" s="13"/>
@@ -5079,187 +4157,183 @@
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B26" s="15">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D26" s="3">
         <v>7</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>276</v>
+      <c r="F26" s="20" t="s">
+        <v>272</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="I26" s="15">
-        <v>47</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="K26" s="3">
-        <v>6</v>
-      </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N26" s="16" t="s">
-        <v>126</v>
+      <c r="I26" s="12">
+        <v>45</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>99</v>
       </c>
       <c r="P26" s="12">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q26" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="R26" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="S26" s="13" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="T26" s="13"/>
       <c r="U26" s="14"/>
       <c r="W26" s="12">
+        <v>45</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="Y26" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="14"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B27" s="15">
+        <v>48</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="3">
+        <v>7</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="G27" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="15">
         <v>47</v>
       </c>
-      <c r="X26" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y26" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z26" s="13"/>
-      <c r="AA26" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB26" s="14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B27" s="12">
-        <v>50</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="I27" s="15">
-        <v>49</v>
-      </c>
       <c r="J27" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="K27" s="3">
         <v>6</v>
       </c>
       <c r="L27" s="3"/>
-      <c r="M27" s="3" t="s">
-        <v>31</v>
+      <c r="M27" s="20" t="s">
+        <v>30</v>
       </c>
       <c r="N27" s="16" t="s">
         <v>126</v>
       </c>
       <c r="P27" s="12">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="Q27" s="13" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="R27" s="13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="S27" s="13" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="T27" s="13"/>
       <c r="U27" s="14"/>
       <c r="W27" s="12">
+        <v>47</v>
+      </c>
+      <c r="X27" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="AB27" s="14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B28" s="12">
+        <v>50</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I28" s="15">
         <v>49</v>
       </c>
-      <c r="X27" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="13"/>
-      <c r="AB27" s="14"/>
-    </row>
-    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="B28" s="15">
-        <v>52</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D28" s="3">
-        <v>6</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="I28" s="15">
-        <v>51</v>
-      </c>
       <c r="J28" s="3" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="K28" s="3">
         <v>6</v>
       </c>
-      <c r="L28" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M28" s="3" t="s">
-        <v>279</v>
+      <c r="L28" s="3"/>
+      <c r="M28" s="20" t="s">
+        <v>31</v>
       </c>
       <c r="N28" s="16" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="P28" s="12">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q28" s="13" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="R28" s="13" t="s">
         <v>98</v>
       </c>
       <c r="S28" s="13" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="T28" s="13"/>
       <c r="U28" s="14"/>
       <c r="W28" s="12">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="X28" s="13" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="Y28" s="13" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Z28" s="13"/>
       <c r="AA28" s="13"/>
@@ -5267,1078 +4341,305 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="15">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="D29" s="3">
         <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>252</v>
+        <v>197</v>
+      </c>
+      <c r="F29" s="22" t="s">
+        <v>271</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="I29" s="15">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="K29" s="3">
         <v>6</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="16"/>
       <c r="P29" s="12">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q29" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R29" s="13" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="S29" s="13" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="T29" s="13"/>
       <c r="U29" s="14"/>
       <c r="W29" s="12">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="X29" s="13" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="Y29" s="13" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="Z29" s="13"/>
-      <c r="AA29" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB29" s="14" t="s">
-        <v>155</v>
-      </c>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="14"/>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="15">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D30" s="3">
         <v>6</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3" t="s">
-        <v>259</v>
+      <c r="E30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>249</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>133</v>
       </c>
       <c r="I30" s="15">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K30" s="3">
         <v>6</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N30" s="16" t="s">
-        <v>119</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="16"/>
       <c r="P30" s="12">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q30" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R30" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S30" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="T30" s="13"/>
       <c r="U30" s="14"/>
       <c r="W30" s="12">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="X30" s="13" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
       <c r="Y30" s="13" t="s">
-        <v>239</v>
+        <v>154</v>
       </c>
       <c r="Z30" s="13"/>
-      <c r="AA30" s="13"/>
-      <c r="AB30" s="14"/>
+      <c r="AA30" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB30" s="14" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="15">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D31" s="3">
         <v>6</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="3" t="s">
-        <v>263</v>
+      <c r="F31" s="22" t="s">
+        <v>256</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>133</v>
       </c>
       <c r="I31" s="15">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="K31" s="3">
         <v>6</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N31" s="16" t="s">
-        <v>119</v>
-      </c>
+      <c r="L31" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="16"/>
       <c r="P31" s="12">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="Q31" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="R31" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S31" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="T31" s="13"/>
       <c r="U31" s="14"/>
       <c r="W31" s="12">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X31" s="13" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="Y31" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="Z31" s="13"/>
       <c r="AA31" s="13"/>
       <c r="AB31" s="14"/>
     </row>
-    <row r="32" spans="2:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="17">
+    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B32" s="15">
+        <v>58</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="15">
+        <v>57</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" s="3">
+        <v>6</v>
+      </c>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="16"/>
+      <c r="P32" s="12">
+        <v>58</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="T32" s="13"/>
+      <c r="U32" s="14"/>
+      <c r="W32" s="12">
+        <v>57</v>
+      </c>
+      <c r="X32" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y32" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="14"/>
+    </row>
+    <row r="33" spans="2:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="17">
         <v>60</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I32" s="17">
+      <c r="C33" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="I33" s="17">
         <v>59</v>
       </c>
-      <c r="J32" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="K32" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N32" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="P32" s="17">
+      <c r="J33" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K33" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="P33" s="17">
         <v>60</v>
       </c>
-      <c r="Q32" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="R32" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="S32" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="T32" s="18"/>
-      <c r="U32" s="19"/>
-      <c r="W32" s="17">
+      <c r="Q33" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="R33" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="S33" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="T33" s="18"/>
+      <c r="U33" s="19"/>
+      <c r="W33" s="17">
         <v>59</v>
       </c>
-      <c r="X32" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y32" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z32" s="18"/>
-      <c r="AA32" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="AB32" s="19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E70"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B2" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>291</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B3" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E3" s="16"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B4" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B5" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>469</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B6" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>470</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B7" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B8" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B9" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="E9" s="16"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B10" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>314</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B11" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>317</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B12" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B13" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>472</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B14" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B15" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>473</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B16" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>330</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>342</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E22" s="16"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="E24" s="16"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>357</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E26" s="16"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E28" s="16"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>474</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E30" s="16"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="15" t="s">
-        <v>373</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>377</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E32" s="16"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B33" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="E33" s="16"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B34" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E34" s="16"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="15" t="s">
-        <v>388</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>389</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="E36" s="16"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="15" t="s">
-        <v>391</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>392</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E37" s="16"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E38" s="16"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>398</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="C41" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E41" s="16"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="15" t="s">
-        <v>406</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>407</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="E42" s="16"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="C43" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>411</v>
-      </c>
-      <c r="E43" s="16"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="15" t="s">
-        <v>412</v>
-      </c>
-      <c r="C44" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E44" s="16"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="15" t="s">
-        <v>415</v>
-      </c>
-      <c r="C45" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="E45" s="16"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="C46" s="21"/>
-      <c r="D46" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="E46" s="16"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="15" t="s">
-        <v>420</v>
-      </c>
-      <c r="C47" s="21"/>
-      <c r="D47" s="3" t="s">
-        <v>421</v>
-      </c>
-      <c r="E47" s="16"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B49" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="C49" s="21"/>
-      <c r="D49" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="E49" s="16"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B50" s="15" t="s">
-        <v>426</v>
-      </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="E50" s="16"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B51" s="15" t="s">
-        <v>428</v>
-      </c>
-      <c r="C51" s="21"/>
-      <c r="D51" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E51" s="16"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B52" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="C52" s="21"/>
-      <c r="D52" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B53" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="E53" s="16"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B54" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C54" s="21"/>
-      <c r="D54" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E54" s="16"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B55" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="C55" s="21"/>
-      <c r="D55" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B56" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B57" s="15" t="s">
-        <v>440</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B58" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="C58" s="21"/>
-      <c r="D58" s="3" t="s">
-        <v>443</v>
-      </c>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B59" s="15" t="s">
-        <v>444</v>
-      </c>
-      <c r="C59" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="E59" s="16"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B60" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="C60" s="21"/>
-      <c r="D60" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="E60" s="16"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B61" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="E61" s="16"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B62" s="15" t="s">
-        <v>450</v>
-      </c>
-      <c r="C62" s="21"/>
-      <c r="D62" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="E62" s="16"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B63" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="C63" s="21"/>
-      <c r="D63" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="E63" s="16"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B64" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="C64" s="21"/>
-      <c r="D64" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E64" s="16"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B65" s="15" t="s">
-        <v>456</v>
-      </c>
-      <c r="C65" s="21"/>
-      <c r="D65" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="E65" s="16"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B66" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="E66" s="16"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B67" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B68" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="C68" s="21"/>
-      <c r="D68" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="E68" s="16"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B69" s="15" t="s">
-        <v>464</v>
-      </c>
-      <c r="C69" s="21"/>
-      <c r="D69" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="E69" s="16"/>
-    </row>
-    <row r="70" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="C70" s="23"/>
-      <c r="D70" s="24" t="s">
-        <v>467</v>
-      </c>
-      <c r="E70" s="25"/>
+      <c r="X33" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y33" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB33" s="19" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/fpga/Y8960_Cartridge_TangPrimer25K/doc/Y8960_Cartridge_TangPrimer25K_pin.xlsx
+++ b/fpga/Y8960_Cartridge_TangPrimer25K/doc/Y8960_Cartridge_TangPrimer25K_pin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HRA_product\Y8960_Cartridge\fpga\Y8960_Cartridge_TangPrimer25K\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476396E3-9420-47E0-BF4B-8912CE32481A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF969C-E2B9-4578-B0B1-0B84AA5D449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-270" yWindow="0" windowWidth="21300" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13185" yWindow="0" windowWidth="15720" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要となるピン" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="304">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -1098,6 +1098,86 @@
   </si>
   <si>
     <t>MG121N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>psram_ce_n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>psram_sclk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>psram_sio0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>psram_sio1</t>
+  </si>
+  <si>
+    <t>psram_sio2</t>
+  </si>
+  <si>
+    <t>psram_sio3</t>
+  </si>
+  <si>
+    <t>inout</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hs_mosi0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hs_mosi3</t>
+  </si>
+  <si>
+    <t>hs_mosi2</t>
+  </si>
+  <si>
+    <t>hs_mosi1</t>
+  </si>
+  <si>
+    <t>hs_miso0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hs_miso3</t>
+  </si>
+  <si>
+    <t>hs_miso2</t>
+  </si>
+  <si>
+    <t>hs_miso1</t>
+  </si>
+  <si>
+    <t>hs_clk</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hs_cs_n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>led0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>led1</t>
+  </si>
+  <si>
+    <t>led2</t>
+  </si>
+  <si>
+    <t>led3</t>
+  </si>
+  <si>
+    <t>dipsw0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dipsw1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1122,7 +1202,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1162,6 +1242,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1315,7 +1407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1383,6 +1475,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2646,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AB33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
+      <selection activeCell="U38" sqref="U38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2874,8 +2972,12 @@
         <v>5</v>
       </c>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="16"/>
+      <c r="AA5" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="AB5" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B6" s="15">
@@ -2938,8 +3040,12 @@
         <v>5</v>
       </c>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="16"/>
+      <c r="AA6" s="24" t="s">
+        <v>297</v>
+      </c>
+      <c r="AB6" s="16" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B7" s="15">
@@ -3006,8 +3112,12 @@
       <c r="Z7" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AA7" s="3"/>
-      <c r="AB7" s="16"/>
+      <c r="AA7" s="23" t="s">
+        <v>281</v>
+      </c>
+      <c r="AB7" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B8" s="15">
@@ -3074,8 +3184,12 @@
       <c r="Z8" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="16"/>
+      <c r="AA8" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="AB8" s="16" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B9" s="15">
@@ -3138,8 +3252,12 @@
         <v>5</v>
       </c>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="16"/>
+      <c r="AA9" s="23" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB9" s="16" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B10" s="15">
@@ -3202,8 +3320,12 @@
         <v>5</v>
       </c>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="16"/>
+      <c r="AA10" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB10" s="16" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
@@ -3266,8 +3388,12 @@
       <c r="Z11" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="16"/>
+      <c r="AA11" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB11" s="16" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B12" s="15">
@@ -3328,8 +3454,12 @@
         <v>5</v>
       </c>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="16"/>
+      <c r="AA12" s="23" t="s">
+        <v>286</v>
+      </c>
+      <c r="AB12" s="16" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B13" s="15">
@@ -3372,8 +3502,12 @@
         <v>2</v>
       </c>
       <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="16"/>
+      <c r="T13" s="24" t="s">
+        <v>293</v>
+      </c>
+      <c r="U13" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="W13" s="12">
         <v>19</v>
       </c>
@@ -3434,8 +3568,12 @@
       <c r="S14" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="T14" s="3"/>
-      <c r="U14" s="16"/>
+      <c r="T14" s="24" t="s">
+        <v>296</v>
+      </c>
+      <c r="U14" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="W14" s="12">
         <v>21</v>
       </c>
@@ -3484,8 +3622,12 @@
         <v>4</v>
       </c>
       <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="16"/>
+      <c r="M15" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="P15" s="15">
         <v>24</v>
       </c>
@@ -3498,8 +3640,12 @@
       <c r="S15" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="T15" s="3"/>
-      <c r="U15" s="16"/>
+      <c r="T15" s="24" t="s">
+        <v>294</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="W15" s="12">
         <v>23</v>
       </c>
@@ -3564,8 +3710,12 @@
       <c r="S16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="16"/>
+      <c r="T16" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="W16" s="12">
         <v>25</v>
       </c>
@@ -3630,8 +3780,12 @@
       <c r="S17" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="T17" s="3"/>
-      <c r="U17" s="16"/>
+      <c r="T17" s="24" t="s">
+        <v>292</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="W17" s="12">
         <v>27</v>
       </c>
@@ -3698,8 +3852,12 @@
       <c r="S18" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="T18" s="3"/>
-      <c r="U18" s="16"/>
+      <c r="T18" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="W18" s="12">
         <v>29</v>
       </c>
@@ -3764,8 +3922,12 @@
       <c r="S19" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T19" s="3"/>
-      <c r="U19" s="16"/>
+      <c r="T19" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="W19" s="12">
         <v>31</v>
       </c>
@@ -3826,8 +3988,12 @@
       <c r="S20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="T20" s="3"/>
-      <c r="U20" s="16"/>
+      <c r="T20" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="W20" s="12">
         <v>33</v>
       </c>
@@ -3888,8 +4054,12 @@
       <c r="S21" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="T21" s="3"/>
-      <c r="U21" s="16"/>
+      <c r="T21" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="W21" s="12">
         <v>35</v>
       </c>
@@ -4370,8 +4540,12 @@
       <c r="L29" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M29" s="3"/>
-      <c r="N29" s="16"/>
+      <c r="M29" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="N29" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="P29" s="12">
         <v>52</v>
       </c>
@@ -4430,8 +4604,12 @@
       <c r="L30" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="M30" s="3"/>
-      <c r="N30" s="16"/>
+      <c r="M30" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="N30" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="P30" s="12">
         <v>54</v>
       </c>
@@ -4492,8 +4670,12 @@
       <c r="L31" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="16"/>
+      <c r="M31" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="N31" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="P31" s="12">
         <v>56</v>
       </c>
@@ -4548,8 +4730,12 @@
         <v>6</v>
       </c>
       <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="16"/>
+      <c r="M32" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="N32" s="16" t="s">
+        <v>110</v>
+      </c>
       <c r="P32" s="12">
         <v>58</v>
       </c>

--- a/fpga/Y8960_Cartridge_TangPrimer25K/doc/Y8960_Cartridge_TangPrimer25K_pin.xlsx
+++ b/fpga/Y8960_Cartridge_TangPrimer25K/doc/Y8960_Cartridge_TangPrimer25K_pin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\HRA_product\Y8960_Cartridge\fpga\Y8960_Cartridge_TangPrimer25K\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FAF969C-E2B9-4578-B0B1-0B84AA5D449C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA62988A-EB75-4A64-9C19-C629B1246F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13185" yWindow="0" windowWidth="15720" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="必要となるピン" sheetId="1" r:id="rId1"/>
@@ -1057,10 +1057,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>clock</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>audio_mclk</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1178,6 +1174,10 @@
   </si>
   <si>
     <t>dipsw1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clk14m</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2582,7 +2582,7 @@
         <v>66</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>51</v>
@@ -2594,7 +2594,7 @@
         <v>67</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>51</v>
@@ -2606,7 +2606,7 @@
         <v>68</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>51</v>
@@ -2745,7 +2745,7 @@
   <dimension ref="B1:AB33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="103" workbookViewId="0">
-      <selection activeCell="U38" sqref="U38"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2767,7 +2767,7 @@
   <sheetData>
     <row r="1" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="2:28" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
@@ -2925,7 +2925,7 @@
         <v>106</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="G5" s="16" t="s">
         <v>107</v>
@@ -2972,8 +2972,8 @@
         <v>5</v>
       </c>
       <c r="Z5" s="3"/>
-      <c r="AA5" s="21" t="s">
-        <v>302</v>
+      <c r="AA5" s="24" t="s">
+        <v>296</v>
       </c>
       <c r="AB5" s="16" t="s">
         <v>107</v>
@@ -3040,11 +3040,11 @@
         <v>5</v>
       </c>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="24" t="s">
-        <v>297</v>
+      <c r="AA6" s="23" t="s">
+        <v>283</v>
       </c>
       <c r="AB6" s="16" t="s">
-        <v>107</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.15">
@@ -3113,7 +3113,7 @@
         <v>132</v>
       </c>
       <c r="AA7" s="23" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AB7" s="16" t="s">
         <v>110</v>
@@ -3185,7 +3185,7 @@
         <v>141</v>
       </c>
       <c r="AA8" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AB8" s="16" t="s">
         <v>110</v>
@@ -3203,7 +3203,7 @@
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>126</v>
@@ -3253,10 +3253,10 @@
       </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AB9" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.15">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G10" s="16" t="s">
         <v>126</v>
@@ -3310,22 +3310,18 @@
       <c r="U10" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="12">
         <v>13</v>
       </c>
-      <c r="X10" s="3" t="s">
+      <c r="X10" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="13">
         <v>5</v>
       </c>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="AB10" s="16" t="s">
-        <v>287</v>
-      </c>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="14"/>
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B11" s="15">
@@ -3389,10 +3385,10 @@
         <v>135</v>
       </c>
       <c r="AA11" s="23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AB11" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.15">
@@ -3424,8 +3420,12 @@
       <c r="L12" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="16"/>
+      <c r="M12" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="N12" s="16" t="s">
+        <v>107</v>
+      </c>
       <c r="P12" s="15">
         <v>18</v>
       </c>
@@ -3455,10 +3455,10 @@
       </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="23" t="s">
+        <v>285</v>
+      </c>
+      <c r="AB12" s="16" t="s">
         <v>286</v>
-      </c>
-      <c r="AB12" s="16" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.15">
@@ -3503,7 +3503,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="24" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="U13" s="16" t="s">
         <v>110</v>
@@ -3569,7 +3569,7 @@
         <v>132</v>
       </c>
       <c r="T14" s="24" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="U14" s="16" t="s">
         <v>107</v>
@@ -3623,7 +3623,7 @@
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="21" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="N15" s="16" t="s">
         <v>107</v>
@@ -3641,7 +3641,7 @@
         <v>179</v>
       </c>
       <c r="T15" s="24" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="U15" s="16" t="s">
         <v>110</v>
@@ -3711,7 +3711,7 @@
         <v>132</v>
       </c>
       <c r="T16" s="24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="U16" s="16" t="s">
         <v>110</v>
@@ -3781,7 +3781,7 @@
         <v>191</v>
       </c>
       <c r="T17" s="24" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="U17" s="16" t="s">
         <v>110</v>
@@ -3853,7 +3853,7 @@
         <v>197</v>
       </c>
       <c r="T18" s="24" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="U18" s="16" t="s">
         <v>107</v>
@@ -3923,7 +3923,7 @@
         <v>115</v>
       </c>
       <c r="T19" s="24" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="U19" s="16" t="s">
         <v>107</v>
@@ -3989,7 +3989,7 @@
         <v>132</v>
       </c>
       <c r="T20" s="24" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="U20" s="16" t="s">
         <v>107</v>
@@ -4055,7 +4055,7 @@
         <v>115</v>
       </c>
       <c r="T21" s="24" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="U21" s="16" t="s">
         <v>107</v>
@@ -4337,7 +4337,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>126</v>
@@ -4390,14 +4390,14 @@
         <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" s="3">
         <v>7</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>126</v>
@@ -4523,7 +4523,7 @@
         <v>197</v>
       </c>
       <c r="F29" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>116</v>
@@ -4541,7 +4541,7 @@
         <v>205</v>
       </c>
       <c r="M29" s="21" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N29" s="16" t="s">
         <v>110</v>
@@ -4605,7 +4605,7 @@
         <v>205</v>
       </c>
       <c r="M30" s="21" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N30" s="16" t="s">
         <v>110</v>
@@ -4671,7 +4671,7 @@
         <v>262</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N31" s="16" t="s">
         <v>110</v>
@@ -4731,7 +4731,7 @@
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N32" s="16" t="s">
         <v>110</v>
